--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi\Python\daily_status\Daily_Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi\Python\daily_status\Daily_Status\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741E032-6959-4AD4-8E86-7361F7085E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CBC740-ED6C-429B-993E-C33BFEF365B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>S.NO</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>2.Np Where condition in Python (multiple value updates)</t>
+  </si>
+  <si>
+    <t>1.sql join queries (inner,left)</t>
+  </si>
+  <si>
+    <t>2.python joins (or) merge (inner,left,right,inner)</t>
+  </si>
+  <si>
+    <t>SQL&amp;Python_Practice:-https://github.com/Swathiloya/Daily_Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         GITHUB_LINKS                                                                              </t>
   </si>
 </sst>
 </file>
@@ -123,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -140,11 +152,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,13 +453,14 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="64.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -453,12 +469,15 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="8">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -469,8 +488,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -479,8 +498,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -489,19 +508,20 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" s="2"/>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -510,8 +530,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,7 +540,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="7">
@@ -534,7 +554,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -545,7 +565,7 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
@@ -555,7 +575,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
@@ -565,7 +585,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
@@ -575,7 +595,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
@@ -585,7 +605,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
       <c r="B14" s="7">
@@ -599,8 +619,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
         <v>17</v>
       </c>
@@ -609,8 +629,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
@@ -618,8 +638,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
       <c r="B17" s="7">
@@ -632,9 +652,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
@@ -642,9 +662,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
@@ -652,8 +672,47 @@
         <v>3</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>5</v>
+      </c>
+      <c r="B20" s="7">
+        <v>45639</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi\Python\daily_status\Daily_Status\Daily_Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CBC740-ED6C-429B-993E-C33BFEF365B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98835DA2-28F5-48E6-A707-B33A331D546B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,12 +78,6 @@
     <t>SQL Queries And Python:-</t>
   </si>
   <si>
-    <t>1.Case When queries in SQL(single value update)</t>
-  </si>
-  <si>
-    <t>2.Np Where condition in Python (single value update)</t>
-  </si>
-  <si>
     <t>1.Case When queries in SQL(multiple values updates)</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t xml:space="preserve">                                         GITHUB_LINKS                                                                              </t>
+  </si>
+  <si>
+    <t>2.Np Where condition in Python (single value updates)</t>
+  </si>
+  <si>
+    <t>1.Case When queries in SQL(single value updates)</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -632,7 +632,7 @@
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -656,7 +656,7 @@
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -666,7 +666,7 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -686,14 +686,14 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -703,7 +703,7 @@
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -711,16 +711,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98835DA2-28F5-48E6-A707-B33A331D546B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C641EA-6420-4503-A6DF-7E310B2F82F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>S.NO</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>1.Case When queries in SQL(single value updates)</t>
+  </si>
+  <si>
+    <t>staturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -152,14 +158,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -474,7 +486,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="8">
@@ -488,7 +500,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>6</v>
@@ -498,7 +510,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>7</v>
@@ -508,7 +520,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>10</v>
@@ -520,7 +532,7 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>9</v>
@@ -530,7 +542,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -540,10 +552,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -554,8 +566,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -565,8 +577,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -575,8 +587,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -585,8 +597,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -595,8 +607,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -605,10 +617,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>3</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="7">
+        <v>3</v>
+      </c>
+      <c r="B14" s="9">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -619,8 +631,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -629,8 +641,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -639,10 +651,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>4</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -653,8 +665,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -663,8 +675,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -673,10 +685,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>5</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -690,8 +702,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -700,13 +712,35 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>6</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45640</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>7</v>
+      </c>
+      <c r="B24" s="10">
+        <v>45641</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C641EA-6420-4503-A6DF-7E310B2F82F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6033FE1-86E8-420E-B6CB-72F07B53956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
   <si>
     <t>S.NO</t>
   </si>
@@ -106,6 +106,42 @@
   </si>
   <si>
     <t>Sunday</t>
+  </si>
+  <si>
+    <t>SQL Filters:-</t>
+  </si>
+  <si>
+    <t>1.And Condition</t>
+  </si>
+  <si>
+    <t>2.OR Condition</t>
+  </si>
+  <si>
+    <t>3.Multiple Condition</t>
+  </si>
+  <si>
+    <t>Python Filters:-</t>
+  </si>
+  <si>
+    <t>1.Equal Condition</t>
+  </si>
+  <si>
+    <t>2.Not Equal Condition</t>
+  </si>
+  <si>
+    <t>3.And Condition</t>
+  </si>
+  <si>
+    <t>4. OR Condition</t>
+  </si>
+  <si>
+    <t>5.Isin Condition</t>
+  </si>
+  <si>
+    <t>6. Not Isin Condition</t>
+  </si>
+  <si>
+    <t>Holiday</t>
   </si>
 </sst>
 </file>
@@ -141,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -161,17 +197,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,10 +525,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="11">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -500,8 +539,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -510,8 +549,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -520,8 +559,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -532,8 +571,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -542,8 +581,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -552,10 +591,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <v>2</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -566,8 +605,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -577,8 +616,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -587,8 +626,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -597,8 +636,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -607,8 +646,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -617,10 +656,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="A14" s="9">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -631,8 +670,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -641,8 +680,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -651,10 +690,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+      <c r="A17" s="9">
         <v>4</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="10">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -665,8 +704,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -675,8 +714,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -685,10 +724,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="9">
         <v>5</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -702,8 +741,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -712,8 +751,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -731,20 +770,169 @@
       <c r="C23" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="9">
         <v>7</v>
       </c>
       <c r="B24" s="10">
-        <v>45641</v>
+        <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="8"/>
+      <c r="B39" s="7"/>
+      <c r="C39"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="8"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6033FE1-86E8-420E-B6CB-72F07B53956A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A37D82-B32A-4347-8CEF-E03320D92940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
   <si>
     <t>S.NO</t>
   </si>
@@ -148,10 +148,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,10 +182,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,8 +221,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,6 +807,9 @@
       </c>
       <c r="D25" t="s">
         <v>3</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -944,7 +958,10 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A37D82-B32A-4347-8CEF-E03320D92940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970907EC-B015-448B-A645-27358196E59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
   <si>
     <t>S.NO</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Holiday</t>
+  </si>
+  <si>
+    <t>1.In Condition</t>
+  </si>
+  <si>
+    <t>2.between Condition</t>
+  </si>
+  <si>
+    <t>Python:-</t>
+  </si>
+  <si>
+    <t>1.In Condition(only konni columns lo values matrame ravali python lo)</t>
   </si>
 </sst>
 </file>
@@ -186,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,6 +224,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,7 +246,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,18 +527,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="55.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,10 +560,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="16">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -550,8 +574,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -560,8 +584,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -570,8 +594,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -582,8 +606,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -592,8 +616,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -602,10 +626,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="15">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -616,8 +640,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -627,8 +651,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -637,8 +661,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -647,8 +671,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -657,8 +681,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -667,10 +691,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>3</v>
-      </c>
-      <c r="B14" s="10">
+      <c r="A14" s="14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="15">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -681,8 +705,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -691,8 +715,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -701,10 +725,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="15">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -715,8 +739,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -725,8 +749,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -735,10 +759,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="14">
         <v>5</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="15">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -752,8 +776,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -762,8 +786,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -786,10 +810,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
+      <c r="A24" s="14">
         <v>7</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="15">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -800,21 +824,21 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -823,8 +847,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -833,8 +857,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -843,8 +867,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -853,8 +877,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -863,8 +887,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -873,8 +897,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -883,8 +907,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -893,8 +917,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -903,8 +927,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -913,8 +937,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -923,30 +947,104 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="14">
+        <v>8</v>
+      </c>
+      <c r="B37" s="15">
+        <v>45643</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="C39"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+    </row>
+    <row r="49" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="10"/>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C51"/>
+      <c r="D51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
+  <mergeCells count="16">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -957,6 +1055,12 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A43:A48"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970907EC-B015-448B-A645-27358196E59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6605B4C-6285-4AAE-A8B7-139FF7E3A680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t>S.NO</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>1.In Condition(only konni columns lo values matrame ravali python lo)</t>
+  </si>
+  <si>
+    <t>1.Limit offset</t>
+  </si>
+  <si>
+    <t>1.Def function</t>
+  </si>
+  <si>
+    <t>2.Concat  or  Append</t>
   </si>
 </sst>
 </file>
@@ -241,10 +250,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -529,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,7 +572,7 @@
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -575,7 +584,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -585,7 +594,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -595,7 +604,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -607,7 +616,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -617,7 +626,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -629,7 +638,7 @@
       <c r="A8" s="14">
         <v>2</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -641,7 +650,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -652,7 +661,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -662,7 +671,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,7 +681,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -682,7 +691,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,7 +703,7 @@
       <c r="A14" s="14">
         <v>3</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -728,7 +737,7 @@
       <c r="A17" s="14">
         <v>4</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -762,7 +771,7 @@
       <c r="A20" s="14">
         <v>5</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -813,7 +822,7 @@
       <c r="A24" s="14">
         <v>7</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="16">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -825,7 +834,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -838,7 +847,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -848,7 +857,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -858,7 +867,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -868,7 +877,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -878,7 +887,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -888,7 +897,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -898,7 +907,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -908,7 +917,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -918,7 +927,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -928,7 +937,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -938,7 +947,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -950,7 +959,7 @@
       <c r="A37" s="14">
         <v>8</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="16">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -962,7 +971,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -972,7 +981,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -982,7 +991,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -992,7 +1001,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1001,38 +1010,72 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="6"/>
+      <c r="A42" s="14">
+        <v>9</v>
+      </c>
+      <c r="B42" s="16">
+        <v>45644</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="7"/>
       <c r="C48" s="13"/>
       <c r="D48" s="12"/>
     </row>
     <row r="49" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
-      <c r="B49" s="15"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="10"/>
     </row>
     <row r="50" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1045,6 +1088,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -1055,12 +1104,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="B44:B49"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6605B4C-6285-4AAE-A8B7-139FF7E3A680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E74A07-0937-490E-97BB-980689CC1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
   <si>
     <t>S.NO</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>2.Concat  or  Append</t>
+  </si>
+  <si>
+    <t>1.SQL All Queries Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.Understanding the project process </t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
@@ -207,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,16 +253,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +575,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="15">
@@ -583,7 +589,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>6</v>
@@ -593,7 +599,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="15"/>
       <c r="C4" t="s">
         <v>7</v>
@@ -603,7 +609,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>10</v>
@@ -615,7 +621,7 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>9</v>
@@ -625,7 +631,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -635,10 +641,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -649,8 +655,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -660,8 +666,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -670,8 +676,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -680,8 +686,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -690,8 +696,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -700,10 +706,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="13">
+        <v>3</v>
+      </c>
+      <c r="B14" s="14">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -714,8 +720,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -724,8 +730,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -734,10 +740,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="13">
         <v>4</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -748,8 +754,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -758,8 +764,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -768,10 +774,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="13">
         <v>5</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -785,8 +791,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -795,8 +801,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -819,10 +825,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
+      <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -833,8 +839,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -846,8 +852,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -856,8 +862,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -866,8 +872,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -876,8 +882,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -886,8 +892,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -896,8 +902,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -906,8 +912,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -916,8 +922,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -926,8 +932,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -936,8 +942,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -946,8 +952,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -956,10 +962,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>8</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="14">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -970,8 +976,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="14"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -980,8 +986,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -990,8 +996,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1000,8 +1006,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="14"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1010,10 +1016,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="14">
+      <c r="A42" s="13">
         <v>9</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="14">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1024,8 +1030,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="14"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1034,8 +1040,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="14"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1044,8 +1050,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="14"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1054,8 +1060,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="14"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1064,36 +1070,53 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
-    </row>
-    <row r="49" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="10"/>
-    </row>
-    <row r="50" spans="1:4" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13">
+        <v>10</v>
+      </c>
+      <c r="B47" s="14">
+        <v>45645</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
       <c r="B50" s="7"/>
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="8"/>
       <c r="C51"/>
       <c r="D51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
+  <mergeCells count="18">
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -1104,6 +1127,12 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E74A07-0937-490E-97BB-980689CC1AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07C0A8-6A52-41D6-BA64-DA7AA2F2C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
   <si>
     <t>S.NO</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>1.splunk to servicenow connection process (searching)</t>
+  </si>
+  <si>
+    <t>2.project work</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -236,18 +242,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -260,6 +257,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,10 +575,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="12">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -589,8 +589,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -599,8 +599,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="15"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -609,8 +609,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -621,8 +621,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -631,8 +631,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -641,10 +641,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -655,8 +655,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -666,8 +666,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -676,8 +676,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -686,8 +686,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -696,8 +696,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -706,10 +706,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
-        <v>3</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="10">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -720,8 +720,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -730,8 +730,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -740,10 +740,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="10">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="11">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -754,8 +754,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -764,8 +764,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,10 +774,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13">
+      <c r="A20" s="10">
         <v>5</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="11">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -791,8 +791,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -801,8 +801,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -825,10 +825,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
+      <c r="A24" s="10">
         <v>7</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -839,21 +839,21 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -862,8 +862,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -872,8 +872,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -882,8 +882,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -892,8 +892,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -902,8 +902,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -912,8 +912,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -922,8 +922,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -932,8 +932,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -942,8 +942,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -952,8 +952,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -962,10 +962,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="13">
+      <c r="A37" s="10">
         <v>8</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="11">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -976,8 +976,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -986,8 +986,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -996,8 +996,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1006,8 +1006,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1016,10 +1016,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="10">
         <v>9</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="11">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1030,8 +1030,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1040,8 +1040,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1050,8 +1050,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1060,8 +1060,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1070,10 +1070,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="13">
+      <c r="A47" s="10">
         <v>10</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="11">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1084,9 +1084,9 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D48" t="s">
@@ -1094,27 +1094,45 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="10" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="11"/>
+    <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>11</v>
+      </c>
+      <c r="B50" s="11">
+        <v>45646</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="C51"/>
-      <c r="D51" s="1"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A2:A7"/>
@@ -1131,8 +1149,6 @@
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A24:A36"/>
     <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C07C0A8-6A52-41D6-BA64-DA7AA2F2C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFC7495-AA92-4ACB-9C79-0464C2D53F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
   <si>
     <t>S.NO</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>2.project work</t>
+  </si>
+  <si>
+    <t>List,Tuple,Set,Dictionary</t>
+  </si>
+  <si>
+    <t>Project Work</t>
   </si>
 </sst>
 </file>
@@ -222,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -250,6 +256,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -258,8 +267,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T51"/>
+  <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,10 +584,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="13">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -589,8 +598,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="13"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -599,8 +608,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -609,8 +618,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="13"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -621,8 +630,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="13"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -631,8 +640,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -641,10 +650,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -655,8 +664,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -666,8 +675,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -676,8 +685,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -686,8 +695,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -696,8 +705,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -706,10 +715,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>3</v>
-      </c>
-      <c r="B14" s="11">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -720,8 +729,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -730,8 +739,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -740,10 +749,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -754,8 +763,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -764,8 +773,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -774,10 +783,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="A20" s="11">
         <v>5</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -791,8 +800,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -801,8 +810,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -825,10 +834,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -839,8 +848,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -852,8 +861,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -862,8 +871,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -872,8 +881,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -882,8 +891,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -892,8 +901,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -902,8 +911,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -912,8 +921,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -922,8 +931,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -932,8 +941,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -942,8 +951,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -952,8 +961,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -962,10 +971,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="A37" s="11">
         <v>8</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -976,8 +985,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -986,8 +995,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -996,8 +1005,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1006,8 +1015,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1016,10 +1025,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="11">
         <v>9</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="12">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1030,8 +1039,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1040,8 +1049,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1050,8 +1059,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1060,8 +1069,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1070,10 +1079,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47" s="11">
         <v>10</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="12">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1084,8 +1093,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="11"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="9" t="s">
         <v>46</v>
       </c>
@@ -1094,8 +1103,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1104,13 +1113,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="10">
+      <c r="A50" s="11">
         <v>11</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="12">
         <v>45646</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D50" t="s">
@@ -1118,8 +1127,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1127,14 +1136,52 @@
         <v>3</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="11">
+        <v>12</v>
+      </c>
+      <c r="B52" s="12">
+        <v>45649</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>13</v>
+      </c>
+      <c r="B54" s="14">
+        <v>45650</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
+  <mergeCells count="22">
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -1145,10 +1192,12 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFC7495-AA92-4ACB-9C79-0464C2D53F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2008CF98-E4B4-4732-B9D4-3B519DC35F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
   <si>
     <t>S.NO</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Project Work</t>
+  </si>
+  <si>
+    <t>1.like Query and all queries pracitce</t>
   </si>
 </sst>
 </file>
@@ -258,17 +261,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -551,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T54"/>
+  <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,7 +587,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="13">
@@ -598,7 +601,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" t="s">
         <v>6</v>
@@ -608,7 +611,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="13"/>
       <c r="C4" t="s">
         <v>7</v>
@@ -618,7 +621,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" t="s">
         <v>10</v>
@@ -630,7 +633,7 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" t="s">
         <v>9</v>
@@ -640,7 +643,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -650,10 +653,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="14">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -664,8 +667,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -675,8 +678,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -685,8 +688,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -695,8 +698,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -705,8 +708,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -715,10 +718,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>3</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="14">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -729,8 +732,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -739,8 +742,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -749,10 +752,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>4</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -763,8 +766,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -773,8 +776,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -783,10 +786,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>5</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="14">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -800,8 +803,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -810,8 +813,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -834,10 +837,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>7</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="14">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -848,8 +851,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -861,8 +864,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -871,8 +874,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -881,8 +884,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -891,8 +894,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -901,8 +904,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -911,8 +914,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -921,8 +924,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -931,8 +934,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -941,8 +944,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -951,8 +954,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -961,8 +964,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -971,10 +974,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+      <c r="A37" s="12">
         <v>8</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="14">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -985,8 +988,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -995,8 +998,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1005,8 +1008,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1015,8 +1018,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1025,10 +1028,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="11">
+      <c r="A42" s="12">
         <v>9</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="14">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1039,8 +1042,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1049,8 +1052,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1059,8 +1062,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1069,8 +1072,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1079,10 +1082,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+      <c r="A47" s="12">
         <v>10</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="14">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1093,8 +1096,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="9" t="s">
         <v>46</v>
       </c>
@@ -1103,8 +1106,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1113,10 +1116,10 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="11">
+      <c r="A50" s="12">
         <v>11</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="14">
         <v>45646</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -1127,8 +1130,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="14"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1137,10 +1140,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="11">
+      <c r="A52" s="12">
         <v>12</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="14">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1151,8 +1154,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1164,7 +1167,7 @@
       <c r="A54" s="2">
         <v>13</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="11">
         <v>45650</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1174,14 +1177,56 @@
         <v>3</v>
       </c>
     </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="12">
+        <v>14</v>
+      </c>
+      <c r="B55" s="14">
+        <v>45652</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A24:A36"/>
     <mergeCell ref="B24:B36"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
@@ -1192,12 +1237,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2008CF98-E4B4-4732-B9D4-3B519DC35F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F40235A-9273-4F6A-B7A4-014E46811922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
   <si>
     <t>S.NO</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>1.like Query and all queries pracitce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Understanding the project work process </t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T57"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1208,6 +1211,20 @@
         <v>47</v>
       </c>
       <c r="D57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>15</v>
+      </c>
+      <c r="B58" s="11">
+        <v>45653</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F40235A-9273-4F6A-B7A4-014E46811922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A551C19D-98B6-453C-82E6-A0999A14CB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>S.NO</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">1.Understanding the project work process </t>
+  </si>
+  <si>
+    <t>2.python pracitce &amp;about snowflake explore</t>
   </si>
 </sst>
 </file>
@@ -557,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T58"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1228,8 +1231,34 @@
         <v>48</v>
       </c>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="12">
+        <v>16</v>
+      </c>
+      <c r="B59" s="14">
+        <v>45656</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A37:A41"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A551C19D-98B6-453C-82E6-A0999A14CB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAAB549-6DB6-406C-8781-4CCEA2A1EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
   <si>
     <t>S.NO</t>
   </si>
@@ -193,6 +193,24 @@
   </si>
   <si>
     <t>2.python pracitce &amp;about snowflake explore</t>
+  </si>
+  <si>
+    <t>2about pyspark explore</t>
+  </si>
+  <si>
+    <t>2.what is dataware house in snowflake</t>
+  </si>
+  <si>
+    <t>3.how many dataware house types  in snowflake</t>
+  </si>
+  <si>
+    <t>4.how to crate dataware house in snowflake</t>
+  </si>
+  <si>
+    <t>1.Understanding the project work process</t>
+  </si>
+  <si>
+    <t>No work</t>
   </si>
 </sst>
 </file>
@@ -237,7 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,9 +280,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -278,6 +293,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T60"/>
+  <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,10 +614,10 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -607,8 +628,8 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -617,8 +638,8 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -627,8 +648,8 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -639,8 +660,8 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -649,8 +670,8 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -659,10 +680,10 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -673,8 +694,8 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -684,8 +705,8 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -694,8 +715,8 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -704,8 +725,8 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -714,8 +735,8 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -724,10 +745,10 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="12">
-        <v>3</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -738,8 +759,8 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="1" t="s">
         <v>24</v>
       </c>
@@ -748,8 +769,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
@@ -758,10 +779,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -772,8 +793,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
@@ -782,8 +803,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
@@ -792,10 +813,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>5</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -809,8 +830,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
@@ -819,8 +840,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
@@ -843,10 +864,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
+      <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -857,8 +878,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -870,8 +891,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -880,8 +901,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -890,8 +911,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -900,8 +921,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -910,8 +931,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -920,8 +941,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -930,8 +951,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -940,8 +961,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -950,8 +971,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -960,8 +981,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -970,8 +991,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -980,10 +1001,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
+      <c r="A37" s="11">
         <v>8</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -994,8 +1015,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1004,8 +1025,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1014,8 +1035,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1024,8 +1045,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1034,10 +1055,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="12">
+      <c r="A42" s="11">
         <v>9</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1048,8 +1069,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1058,8 +1079,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="11"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1068,8 +1089,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
-      <c r="B45" s="14"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1078,8 +1099,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1088,10 +1109,10 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="A47" s="11">
         <v>10</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1102,9 +1123,9 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D48" t="s">
@@ -1112,8 +1133,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1122,13 +1143,13 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
+      <c r="A50" s="11">
         <v>11</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>45646</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D50" t="s">
@@ -1136,8 +1157,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="11"/>
+      <c r="B51" s="13"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1146,10 +1167,10 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+      <c r="A52" s="11">
         <v>12</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1160,8 +1181,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="1" t="s">
         <v>51</v>
       </c>
@@ -1173,7 +1194,7 @@
       <c r="A54" s="2">
         <v>13</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>45650</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1184,10 +1205,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
+      <c r="A55" s="11">
         <v>14</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1198,8 +1219,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
@@ -1208,8 +1229,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="1" t="s">
         <v>47</v>
       </c>
@@ -1221,7 +1242,7 @@
       <c r="A58" s="2">
         <v>15</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>45653</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1232,10 +1253,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
+      <c r="A59" s="11">
         <v>16</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1246,8 +1267,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="1" t="s">
         <v>55</v>
       </c>
@@ -1255,8 +1276,94 @@
         <v>48</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>17</v>
+      </c>
+      <c r="B61" s="15">
+        <v>45657</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>18</v>
+      </c>
+      <c r="B63" s="6">
+        <v>45658</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>19</v>
+      </c>
+      <c r="B64" s="13">
+        <v>45659</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="30">
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="B59:B60"/>
     <mergeCell ref="A55:A57"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAAB549-6DB6-406C-8781-4CCEA2A1EBC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF781B-8877-454E-ABE6-6D5F8FEEAA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>S.NO</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>No work</t>
+  </si>
+  <si>
+    <t>1.project work</t>
   </si>
 </sst>
 </file>
@@ -294,10 +297,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T67"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1280,7 +1283,7 @@
       <c r="A61" s="11">
         <v>17</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1292,7 +1295,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="14"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1355,6 +1358,20 @@
         <v>59</v>
       </c>
       <c r="D67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>20</v>
+      </c>
+      <c r="B68" s="10">
+        <v>45660</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\swathi_github\Daily_Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCF781B-8877-454E-ABE6-6D5F8FEEAA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9294A-44C0-4412-A4FA-F65CA0E2EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>S.NO</t>
   </si>
@@ -214,6 +214,27 @@
   </si>
   <si>
     <t>1.project work</t>
+  </si>
+  <si>
+    <t>1.about snowflake explore</t>
+  </si>
+  <si>
+    <t>2.how to ceate warehouse</t>
+  </si>
+  <si>
+    <t>1.snowflake vedios watching</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oxBsh4Fleko&amp;list=PLS5m72lKIYTDG5Ha5b-KGdHIvzy9QQ_1D&amp;index=9</t>
+  </si>
+  <si>
+    <t>2.snowflake vedios watching</t>
+  </si>
+  <si>
+    <t>inprogress</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tmiwKNf2SsE&amp;list=PLpgLWD7byQ3X-RzP-Mmt0Db0Flpkx_gfT</t>
   </si>
 </sst>
 </file>
@@ -292,16 +313,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -584,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:T72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E72" sqref="E72"/>
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +641,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="15">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -632,7 +653,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+      <c r="B3" s="15"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -642,7 +663,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+      <c r="B4" s="15"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -652,7 +673,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -664,7 +685,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="15"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -674,7 +695,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -686,7 +707,7 @@
       <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="14">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -698,7 +719,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -709,7 +730,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -719,7 +740,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,7 +750,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -739,7 +760,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -751,7 +772,7 @@
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="14">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -785,7 +806,7 @@
       <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="14">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -819,7 +840,7 @@
       <c r="A20" s="11">
         <v>5</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="14">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -870,7 +891,7 @@
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -882,7 +903,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -895,7 +916,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -905,7 +926,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -915,7 +936,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -925,7 +946,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -935,7 +956,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -945,7 +966,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -955,7 +976,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -965,7 +986,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -975,7 +996,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -985,7 +1006,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -995,7 +1016,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1007,7 +1028,7 @@
       <c r="A37" s="11">
         <v>8</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37" s="14">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1019,7 +1040,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1029,7 +1050,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1039,7 +1060,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1049,7 +1070,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1061,7 +1082,7 @@
       <c r="A42" s="11">
         <v>9</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="14">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1073,7 +1094,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1083,7 +1104,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1093,7 +1114,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1103,7 +1124,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="13"/>
+      <c r="B46" s="14"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1115,7 +1136,7 @@
       <c r="A47" s="11">
         <v>10</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="14">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1127,7 +1148,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="13"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1137,7 +1158,7 @@
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="13"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1149,7 +1170,7 @@
       <c r="A50" s="11">
         <v>11</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="14">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1161,7 +1182,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="13"/>
+      <c r="B51" s="14"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1173,7 +1194,7 @@
       <c r="A52" s="11">
         <v>12</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52" s="14">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1211,7 +1232,7 @@
       <c r="A55" s="11">
         <v>14</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55" s="14">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1259,7 +1280,7 @@
       <c r="A59" s="11">
         <v>16</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59" s="14">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1283,7 +1304,7 @@
       <c r="A61" s="11">
         <v>17</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="12">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1295,7 +1316,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="15"/>
+      <c r="B62" s="13"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1321,7 +1342,7 @@
       <c r="A64" s="11">
         <v>19</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64" s="14">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1331,7 +1352,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="1" t="s">
@@ -1341,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="1" t="s">
@@ -1351,7 +1372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="1" t="s">
@@ -1361,7 +1382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>20</v>
       </c>
@@ -1375,14 +1396,76 @@
         <v>3</v>
       </c>
     </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>21</v>
+      </c>
+      <c r="B69" s="14">
+        <v>45663</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="11"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>22</v>
+      </c>
+      <c r="B71" s="14">
+        <v>45664</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" t="s">
+        <v>68</v>
+      </c>
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
+  <mergeCells count="34">
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="B55:B57"/>
     <mergeCell ref="A37:A41"/>
@@ -1397,16 +1480,12 @@
     <mergeCell ref="B50:B51"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>

--- a/Daily_Tasks.xlsx
+++ b/Daily_Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daily_Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE9294A-44C0-4412-A4FA-F65CA0E2EEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F87BEA-9BCD-457A-836F-B8ED0968E281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>S.NO</t>
   </si>
@@ -313,16 +313,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T72"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +617,7 @@
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="3" max="3" width="57.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="55.77734375" customWidth="1"/>
+    <col min="5" max="5" width="89.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -641,7 +641,7 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>45635</v>
       </c>
       <c r="C2" t="s">
@@ -653,7 +653,7 @@
     </row>
     <row r="3" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
-      <c r="B3" s="15"/>
+      <c r="B3" s="13"/>
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -663,7 +663,7 @@
     </row>
     <row r="4" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="13"/>
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -673,7 +673,7 @@
     </row>
     <row r="5" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="13"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
@@ -685,7 +685,7 @@
     </row>
     <row r="6" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="13"/>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -695,7 +695,7 @@
     </row>
     <row r="7" spans="1:20" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="A8" s="11">
         <v>2</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <v>45636</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,7 +730,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
@@ -740,7 +740,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
@@ -750,7 +750,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
@@ -760,7 +760,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
@@ -772,7 +772,7 @@
       <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>45637</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -806,7 +806,7 @@
       <c r="A17" s="11">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="12">
         <v>45638</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -840,7 +840,7 @@
       <c r="A20" s="11">
         <v>5</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="12">
         <v>45639</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -891,7 +891,7 @@
       <c r="A24" s="11">
         <v>7</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="12">
         <v>45642</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -903,7 +903,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>16</v>
       </c>
@@ -916,7 +916,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="14"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>27</v>
       </c>
@@ -926,7 +926,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
@@ -936,7 +936,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
@@ -946,7 +946,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
@@ -956,7 +956,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
-      <c r="B30" s="14"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -966,7 +966,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
-      <c r="B31" s="14"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -976,7 +976,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>33</v>
       </c>
@@ -986,7 +986,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
-      <c r="B33" s="14"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
@@ -996,7 +996,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
-      <c r="B34" s="14"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>35</v>
       </c>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
-      <c r="B35" s="14"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="1" t="s">
         <v>37</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="A37" s="11">
         <v>8</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="12">
         <v>45643</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1040,7 +1040,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
-      <c r="B38" s="14"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="1" t="s">
         <v>39</v>
       </c>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
         <v>40</v>
       </c>
@@ -1060,7 +1060,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
@@ -1082,7 +1082,7 @@
       <c r="A42" s="11">
         <v>9</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="12">
         <v>45644</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
         <v>43</v>
       </c>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
-      <c r="B44" s="14"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="11"/>
-      <c r="B45" s="14"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="11"/>
-      <c r="B46" s="14"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1" t="s">
         <v>45</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="A47" s="11">
         <v>10</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="12">
         <v>45645</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1148,7 +1148,7 @@
     </row>
     <row r="48" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
-      <c r="B48" s="14"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="49" spans="1:4" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
-      <c r="B49" s="14"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="8" t="s">
         <v>47</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="A50" s="11">
         <v>11</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="12">
         <v>45646</v>
       </c>
       <c r="C50" s="9" t="s">
@@ -1182,7 +1182,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
-      <c r="B51" s="14"/>
+      <c r="B51" s="12"/>
       <c r="C51" t="s">
         <v>50</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="A52" s="11">
         <v>12</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="12">
         <v>45649</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1232,7 +1232,7 @@
       <c r="A55" s="11">
         <v>14</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="12">
         <v>45652</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1280,7 +1280,7 @@
       <c r="A59" s="11">
         <v>16</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="12">
         <v>45656</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1304,7 +1304,7 @@
       <c r="A61" s="11">
         <v>17</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="14">
         <v>45657</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1316,7 +1316,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
-      <c r="B62" s="13"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="1" t="s">
         <v>56</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="A64" s="11">
         <v>19</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="12">
         <v>45659</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -1400,7 +1400,7 @@
       <c r="A69" s="11">
         <v>21</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="12">
         <v>45663</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -1412,7 +1412,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
@@ -1424,7 +1424,7 @@
       <c r="A71" s="11">
         <v>22</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="12">
         <v>45664</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -1450,8 +1450,55 @@
         <v>69</v>
       </c>
     </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>23</v>
+      </c>
+      <c r="B73" s="12">
+        <v>45665</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" t="s">
+        <v>68</v>
+      </c>
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B24:B36"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:B49"/>
     <mergeCell ref="A69:A70"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="A71:A72"/>
@@ -1468,24 +1515,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="B55:B57"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="A24:A36"/>
-    <mergeCell ref="B24:B36"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E25" r:id="rId1" display="https://github.com/Swathiloya/Daily_Status" xr:uid="{C3116F7F-791E-4165-A1F6-266C944CBF68}"/>
